--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -1729,6 +1729,12 @@
       <c r="K4">
         <v>9</v>
       </c>
+      <c r="L4">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M4">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N4" t="s">
         <v>286</v>
       </c>
@@ -1867,6 +1873,9 @@
       <c r="K7">
         <v>8</v>
       </c>
+      <c r="L7">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M7">
         <v>0</v>
       </c>
@@ -1917,6 +1926,9 @@
       <c r="L8">
         <v>2</v>
       </c>
+      <c r="M8">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N8" t="s">
         <v>286</v>
       </c>
@@ -2308,6 +2320,9 @@
       <c r="K16">
         <v>138</v>
       </c>
+      <c r="L16">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -2402,6 +2417,9 @@
       <c r="K18">
         <v>111</v>
       </c>
+      <c r="L18">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M18">
         <v>3</v>
       </c>
@@ -2496,6 +2514,9 @@
       <c r="K20">
         <v>57</v>
       </c>
+      <c r="L20">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M20">
         <v>1</v>
       </c>
@@ -2543,6 +2564,9 @@
       <c r="K21">
         <v>17</v>
       </c>
+      <c r="L21">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M21">
         <v>0</v>
       </c>
@@ -2587,6 +2611,9 @@
       <c r="K22">
         <v>7</v>
       </c>
+      <c r="L22">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M22">
         <v>0</v>
       </c>
@@ -2631,6 +2658,9 @@
       <c r="K23">
         <v>25</v>
       </c>
+      <c r="L23">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M23">
         <v>0</v>
       </c>
@@ -2672,6 +2702,9 @@
       <c r="K24">
         <v>25</v>
       </c>
+      <c r="L24">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M24">
         <v>0</v>
       </c>
@@ -2716,6 +2749,9 @@
       <c r="K25">
         <v>10</v>
       </c>
+      <c r="L25">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M25">
         <v>1</v>
       </c>
@@ -2763,6 +2799,9 @@
       <c r="K26">
         <v>28</v>
       </c>
+      <c r="L26">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M26">
         <v>3</v>
       </c>
@@ -2810,6 +2849,9 @@
       <c r="K27">
         <v>24</v>
       </c>
+      <c r="L27">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M27">
         <v>0</v>
       </c>
@@ -2857,6 +2899,9 @@
       <c r="K28">
         <v>8</v>
       </c>
+      <c r="L28">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M28">
         <v>0</v>
       </c>
@@ -2901,6 +2946,9 @@
       <c r="K29">
         <v>4</v>
       </c>
+      <c r="L29">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M29">
         <v>0</v>
       </c>
@@ -2948,6 +2996,9 @@
       <c r="K30">
         <v>4</v>
       </c>
+      <c r="L30">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M30">
         <v>0</v>
       </c>
@@ -2995,6 +3046,9 @@
       <c r="K31">
         <v>22</v>
       </c>
+      <c r="L31">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M31">
         <v>0</v>
       </c>
@@ -3042,6 +3096,9 @@
       <c r="K32">
         <v>17</v>
       </c>
+      <c r="L32">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M32">
         <v>0</v>
       </c>
@@ -3089,6 +3146,9 @@
       <c r="K33">
         <v>17</v>
       </c>
+      <c r="L33">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M33">
         <v>0</v>
       </c>
@@ -3136,6 +3196,9 @@
       <c r="K34">
         <v>111</v>
       </c>
+      <c r="L34">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M34">
         <v>3</v>
       </c>
@@ -3180,6 +3243,9 @@
       <c r="K35">
         <v>3</v>
       </c>
+      <c r="L35">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M35">
         <v>0</v>
       </c>
@@ -3227,6 +3293,9 @@
       <c r="K36">
         <v>2</v>
       </c>
+      <c r="L36">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M36">
         <v>2</v>
       </c>
@@ -3274,6 +3343,9 @@
       <c r="K37">
         <v>2</v>
       </c>
+      <c r="L37">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M37">
         <v>2</v>
       </c>
@@ -3321,6 +3393,12 @@
       <c r="K38">
         <v>21</v>
       </c>
+      <c r="L38">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M38">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N38" t="s">
         <v>296</v>
       </c>
@@ -3362,6 +3440,9 @@
       <c r="K39">
         <v>11</v>
       </c>
+      <c r="L39">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M39">
         <v>2</v>
       </c>
@@ -3406,6 +3487,9 @@
       <c r="K40">
         <v>9</v>
       </c>
+      <c r="L40">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M40">
         <v>2</v>
       </c>
@@ -3453,6 +3537,9 @@
       <c r="K41">
         <v>69</v>
       </c>
+      <c r="L41">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M41">
         <v>0</v>
       </c>
@@ -3647,6 +3734,9 @@
       <c r="K45">
         <v>72</v>
       </c>
+      <c r="L45">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M45">
         <v>2</v>
       </c>
@@ -3744,6 +3834,12 @@
       <c r="K47">
         <v>21</v>
       </c>
+      <c r="L47">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M47">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N47" t="s">
         <v>297</v>
       </c>
@@ -4032,6 +4128,12 @@
       <c r="K53">
         <v>13</v>
       </c>
+      <c r="L53">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M53">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N53" t="s">
         <v>286</v>
       </c>
@@ -4126,6 +4228,9 @@
       <c r="K55">
         <v>3</v>
       </c>
+      <c r="L55">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M55">
         <v>0</v>
       </c>
@@ -4223,6 +4328,9 @@
       <c r="K57">
         <v>2</v>
       </c>
+      <c r="L57">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M57">
         <v>0</v>
       </c>
@@ -4270,6 +4378,9 @@
       <c r="K58">
         <v>8</v>
       </c>
+      <c r="L58">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M58">
         <v>0</v>
       </c>
@@ -4317,6 +4428,9 @@
       <c r="K59">
         <v>8</v>
       </c>
+      <c r="L59">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M59">
         <v>0</v>
       </c>
@@ -4361,6 +4475,12 @@
       <c r="K60">
         <v>7</v>
       </c>
+      <c r="L60">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M60">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N60" t="s">
         <v>286</v>
       </c>
@@ -4402,6 +4522,9 @@
       <c r="K61">
         <v>3</v>
       </c>
+      <c r="L61">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M61">
         <v>0</v>
       </c>
@@ -4449,6 +4572,9 @@
       <c r="K62">
         <v>7</v>
       </c>
+      <c r="L62">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M62">
         <v>0</v>
       </c>
@@ -4543,6 +4669,12 @@
       <c r="K64">
         <v>13</v>
       </c>
+      <c r="L64">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M64">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N64" t="s">
         <v>285</v>
       </c>
@@ -4587,6 +4719,9 @@
       <c r="K65">
         <v>3</v>
       </c>
+      <c r="L65">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M65">
         <v>1</v>
       </c>
@@ -4634,6 +4769,9 @@
       <c r="K66">
         <v>14</v>
       </c>
+      <c r="L66">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M66">
         <v>0</v>
       </c>
@@ -4681,6 +4819,9 @@
       <c r="K67">
         <v>14</v>
       </c>
+      <c r="L67">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M67">
         <v>0</v>
       </c>
@@ -4728,6 +4869,9 @@
       <c r="K68">
         <v>8</v>
       </c>
+      <c r="L68">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M68">
         <v>0</v>
       </c>
@@ -4775,6 +4919,9 @@
       <c r="K69">
         <v>9</v>
       </c>
+      <c r="L69">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M69">
         <v>1</v>
       </c>
@@ -4822,6 +4969,9 @@
       <c r="K70">
         <v>16</v>
       </c>
+      <c r="L70">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M70">
         <v>2</v>
       </c>
@@ -4869,6 +5019,9 @@
       <c r="K71">
         <v>10</v>
       </c>
+      <c r="L71">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M71">
         <v>1</v>
       </c>
@@ -4963,6 +5116,12 @@
       <c r="K73">
         <v>9</v>
       </c>
+      <c r="L73">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M73">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N73" t="s">
         <v>297</v>
       </c>
@@ -5004,6 +5163,12 @@
       <c r="K74">
         <v>18</v>
       </c>
+      <c r="L74">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M74">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N74" t="s">
         <v>293</v>
       </c>
@@ -5045,6 +5210,9 @@
       <c r="K75">
         <v>64</v>
       </c>
+      <c r="L75">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M75">
         <v>0</v>
       </c>
@@ -5092,6 +5260,9 @@
       <c r="K76">
         <v>64</v>
       </c>
+      <c r="L76">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M76">
         <v>0</v>
       </c>
@@ -5139,6 +5310,9 @@
       <c r="K77">
         <v>7</v>
       </c>
+      <c r="L77">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M77">
         <v>1</v>
       </c>
@@ -5186,6 +5360,12 @@
       <c r="K78">
         <v>9</v>
       </c>
+      <c r="L78">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M78">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N78" t="s">
         <v>286</v>
       </c>
@@ -5230,6 +5410,9 @@
       <c r="K79">
         <v>17</v>
       </c>
+      <c r="L79">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M79">
         <v>0</v>
       </c>
@@ -5274,6 +5457,9 @@
       <c r="K80">
         <v>284</v>
       </c>
+      <c r="L80">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M80">
         <v>0</v>
       </c>
@@ -5321,6 +5507,9 @@
       <c r="K81">
         <v>8</v>
       </c>
+      <c r="L81">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M81">
         <v>0</v>
       </c>
@@ -5368,6 +5557,9 @@
       <c r="K82">
         <v>24</v>
       </c>
+      <c r="L82">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M82">
         <v>1</v>
       </c>
@@ -5415,6 +5607,9 @@
       <c r="K83">
         <v>24</v>
       </c>
+      <c r="L83">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M83">
         <v>1</v>
       </c>
@@ -5462,6 +5657,9 @@
       <c r="K84">
         <v>8</v>
       </c>
+      <c r="L84">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M84">
         <v>0</v>
       </c>
@@ -5506,6 +5704,9 @@
       <c r="K85">
         <v>19</v>
       </c>
+      <c r="L85">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M85">
         <v>2</v>
       </c>
@@ -5706,6 +5907,9 @@
       <c r="L89">
         <v>4</v>
       </c>
+      <c r="M89">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N89" t="s">
         <v>291</v>
       </c>
@@ -5891,6 +6095,9 @@
       <c r="K93">
         <v>8</v>
       </c>
+      <c r="L93">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M93">
         <v>0</v>
       </c>
@@ -5935,6 +6142,9 @@
       <c r="K94">
         <v>10</v>
       </c>
+      <c r="L94">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M94">
         <v>1</v>
       </c>
@@ -5982,6 +6192,9 @@
       <c r="K95">
         <v>22</v>
       </c>
+      <c r="L95">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M95">
         <v>0</v>
       </c>
@@ -6029,6 +6242,9 @@
       <c r="K96">
         <v>13</v>
       </c>
+      <c r="L96">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M96">
         <v>0</v>
       </c>
@@ -6076,6 +6292,9 @@
       <c r="K97">
         <v>7</v>
       </c>
+      <c r="L97">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M97">
         <v>0</v>
       </c>
@@ -6123,6 +6342,9 @@
       <c r="K98">
         <v>0</v>
       </c>
+      <c r="L98">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M98">
         <v>1</v>
       </c>
@@ -6170,6 +6392,9 @@
       <c r="K99">
         <v>2</v>
       </c>
+      <c r="L99">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M99">
         <v>2</v>
       </c>
@@ -6267,6 +6492,9 @@
       <c r="K101">
         <v>11</v>
       </c>
+      <c r="L101">
+        <v>3.638888888888889</v>
+      </c>
       <c r="M101">
         <v>0</v>
       </c>
@@ -6314,6 +6542,12 @@
       <c r="K102">
         <v>8</v>
       </c>
+      <c r="L102">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M102">
+        <v>0.5888888888888889</v>
+      </c>
       <c r="N102" t="s">
         <v>286</v>
       </c>
@@ -6357,6 +6591,12 @@
       </c>
       <c r="K103">
         <v>21</v>
+      </c>
+      <c r="L103">
+        <v>3.638888888888889</v>
+      </c>
+      <c r="M103">
+        <v>0.5888888888888889</v>
       </c>
       <c r="N103" t="s">
         <v>300</v>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="380">
   <si>
     <t>Birth Country</t>
   </si>
@@ -64,33 +64,18 @@
     <t>Favorite Visualization</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>USA</t>
   </si>
   <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States </t>
-  </si>
-  <si>
     <t>America</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -101,12 +86,6 @@
   </si>
   <si>
     <t>New Zealand</t>
-  </si>
-  <si>
-    <t>United states</t>
-  </si>
-  <si>
-    <t>Unites States</t>
   </si>
   <si>
     <t>Thailand</t>
@@ -1606,28 +1585,28 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" t="s">
         <v>246</v>
       </c>
-      <c r="H2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" t="s">
-        <v>253</v>
-      </c>
       <c r="J2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K2">
         <v>97</v>
@@ -1639,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1650,31 +1629,31 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" t="s">
         <v>249</v>
-      </c>
-      <c r="J3" t="s">
-        <v>256</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1686,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1700,31 +1679,31 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1736,13 +1715,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1750,31 +1729,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
         <v>161</v>
       </c>
-      <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
-      </c>
       <c r="G5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" t="s">
         <v>249</v>
-      </c>
-      <c r="H5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J5" t="s">
-        <v>256</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1786,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1800,28 +1779,28 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1833,42 +1812,42 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" t="s">
         <v>250</v>
-      </c>
-      <c r="J7" t="s">
-        <v>257</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1880,45 +1859,45 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
         <v>164</v>
       </c>
-      <c r="F8" t="s">
-        <v>171</v>
-      </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1930,13 +1909,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1944,31 +1923,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K9">
         <v>13</v>
@@ -1980,45 +1959,45 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" t="s">
         <v>251</v>
-      </c>
-      <c r="J10" t="s">
-        <v>258</v>
       </c>
       <c r="K10">
         <v>72</v>
@@ -2030,45 +2009,45 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2080,45 +2059,45 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K12">
         <v>20</v>
@@ -2130,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O12" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2141,31 +2120,31 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K13">
         <v>28</v>
@@ -2177,45 +2156,45 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O13" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J14" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K14">
         <v>26</v>
@@ -2227,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="O14" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2241,31 +2220,31 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J15" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -2277,45 +2256,45 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O15" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P15" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K16">
         <v>138</v>
@@ -2327,45 +2306,45 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P16" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" t="s">
         <v>246</v>
       </c>
-      <c r="H17" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" t="s">
-        <v>253</v>
-      </c>
       <c r="J17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2377,42 +2356,42 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P17" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K18">
         <v>111</v>
@@ -2424,42 +2403,42 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O18" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
         <v>161</v>
       </c>
-      <c r="E19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" t="s">
-        <v>168</v>
-      </c>
       <c r="G19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" t="s">
         <v>249</v>
-      </c>
-      <c r="H19" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" t="s">
-        <v>256</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2471,45 +2450,45 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O19" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P19" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K20">
         <v>57</v>
@@ -2521,45 +2500,45 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2571,42 +2550,42 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="O21" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2618,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O22" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P22" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2632,28 +2611,28 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K23">
         <v>25</v>
@@ -2665,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O23" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2676,28 +2655,28 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -2709,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O24" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2720,31 +2699,31 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
         <v>249</v>
-      </c>
-      <c r="H25" t="s">
-        <v>251</v>
-      </c>
-      <c r="I25" t="s">
-        <v>250</v>
-      </c>
-      <c r="J25" t="s">
-        <v>256</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2756,45 +2735,45 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P25" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2806,13 +2785,13 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2820,31 +2799,31 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G27" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
         <v>250</v>
-      </c>
-      <c r="J27" t="s">
-        <v>257</v>
       </c>
       <c r="K27">
         <v>24</v>
@@ -2856,45 +2835,45 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P27" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G28" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -2906,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2917,31 +2896,31 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -2953,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P29" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2967,31 +2946,31 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3003,45 +2982,45 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P30" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K31">
         <v>22</v>
@@ -3053,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P31" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3067,31 +3046,31 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -3103,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3117,31 +3096,31 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K33">
         <v>17</v>
@@ -3153,45 +3132,45 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K34">
         <v>111</v>
@@ -3203,42 +3182,42 @@
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3250,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P35" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3264,31 +3243,31 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" t="s">
         <v>246</v>
       </c>
-      <c r="H36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I36" t="s">
-        <v>253</v>
-      </c>
       <c r="J36" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3300,45 +3279,45 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P36" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I37" t="s">
         <v>246</v>
       </c>
-      <c r="H37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I37" t="s">
-        <v>253</v>
-      </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3350,45 +3329,45 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P37" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K38">
         <v>21</v>
@@ -3400,42 +3379,42 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J39" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K39">
         <v>11</v>
@@ -3447,42 +3426,42 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -3494,45 +3473,45 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P40" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J41" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K41">
         <v>69</v>
@@ -3544,45 +3523,45 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O41" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P41" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J42" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K42">
         <v>69</v>
@@ -3594,13 +3573,13 @@
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3608,28 +3587,28 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H43" t="s">
         <v>247</v>
       </c>
-      <c r="H43" t="s">
-        <v>254</v>
-      </c>
       <c r="I43" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J43" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -3641,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P43" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3655,31 +3634,31 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44" t="s">
         <v>247</v>
       </c>
-      <c r="H44" t="s">
-        <v>254</v>
-      </c>
       <c r="I44" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3691,45 +3670,45 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P44" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I45" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K45">
         <v>72</v>
@@ -3741,45 +3720,45 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O45" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P45" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I46" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J46" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -3791,45 +3770,45 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O46" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P46" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J47" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K47">
         <v>21</v>
@@ -3841,45 +3820,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N47" t="s">
+        <v>290</v>
+      </c>
+      <c r="O47" t="s">
         <v>297</v>
       </c>
-      <c r="O47" t="s">
-        <v>304</v>
-      </c>
       <c r="P47" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I48" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J48" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K48">
         <v>21</v>
@@ -3891,45 +3870,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O48" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P48" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G49" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I49" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K49">
         <v>12</v>
@@ -3941,45 +3920,45 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O49" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P49" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J50" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3988,45 +3967,45 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P50" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J51" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K51">
         <v>17</v>
@@ -4038,45 +4017,45 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O51" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P51" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I52" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J52" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K52">
         <v>24</v>
@@ -4088,42 +4067,42 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O52" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P52" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J53" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K53">
         <v>13</v>
@@ -4135,13 +4114,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N53" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O53" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P53" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4149,31 +4128,31 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I54" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J54" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4185,45 +4164,45 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O54" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P54" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G55" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" t="s">
         <v>247</v>
       </c>
-      <c r="I55" t="s">
-        <v>254</v>
-      </c>
       <c r="J55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -4235,45 +4214,45 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O55" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P55" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I56" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J56" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K56">
         <v>69</v>
@@ -4285,45 +4264,45 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O56" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P56" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G57" t="s">
+        <v>242</v>
+      </c>
+      <c r="H57" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" t="s">
+        <v>243</v>
+      </c>
+      <c r="J57" t="s">
         <v>249</v>
-      </c>
-      <c r="H57" t="s">
-        <v>253</v>
-      </c>
-      <c r="I57" t="s">
-        <v>250</v>
-      </c>
-      <c r="J57" t="s">
-        <v>256</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4335,45 +4314,45 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P57" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F58" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G58" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I58" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J58" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -4385,45 +4364,45 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O58" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P58" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H59" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I59" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J59" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K59">
         <v>8</v>
@@ -4435,42 +4414,42 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O59" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G60" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I60" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -4482,42 +4461,42 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N60" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O60" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P60" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I61" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J61" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -4529,45 +4508,45 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O61" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P61" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G62" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I62" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J62" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K62">
         <v>7</v>
@@ -4579,42 +4558,42 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O62" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F63" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G63" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I63" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J63" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K63">
         <v>21</v>
@@ -4626,45 +4605,45 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O63" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P63" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H64" t="s">
+        <v>240</v>
+      </c>
+      <c r="I64" t="s">
         <v>247</v>
       </c>
-      <c r="I64" t="s">
-        <v>254</v>
-      </c>
       <c r="J64" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K64">
         <v>13</v>
@@ -4676,13 +4655,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N64" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O64" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P64" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4690,31 +4669,31 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I65" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J65" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -4726,13 +4705,13 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O65" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P65" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4740,31 +4719,31 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I66" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J66" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K66">
         <v>14</v>
@@ -4776,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O66" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4790,31 +4769,31 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K67">
         <v>14</v>
@@ -4826,45 +4805,45 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O67" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P67" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F68" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I68" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J68" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K68">
         <v>8</v>
@@ -4876,45 +4855,45 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O68" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P68" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F69" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G69" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J69" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K69">
         <v>9</v>
@@ -4926,13 +4905,13 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O69" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P69" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4940,31 +4919,31 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I70" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J70" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K70">
         <v>16</v>
@@ -4976,45 +4955,45 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O70" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P70" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H71" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I71" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J71" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -5026,45 +5005,45 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O71" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P71" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F72" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G72" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I72" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J72" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K72">
         <v>759</v>
@@ -5076,42 +5055,42 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O72" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P72" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I73" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J73" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -5123,42 +5102,42 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N73" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O73" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G74" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I74" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J74" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K74">
         <v>18</v>
@@ -5170,42 +5149,42 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N74" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O74" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F75" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J75" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K75">
         <v>64</v>
@@ -5217,45 +5196,45 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O75" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P75" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J76" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K76">
         <v>64</v>
@@ -5267,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O76" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P76" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5281,31 +5260,31 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F77" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J77" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K77">
         <v>7</v>
@@ -5317,13 +5296,13 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O77" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P77" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5331,31 +5310,31 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I78" t="s">
+        <v>242</v>
+      </c>
+      <c r="J78" t="s">
         <v>249</v>
-      </c>
-      <c r="J78" t="s">
-        <v>256</v>
       </c>
       <c r="K78">
         <v>9</v>
@@ -5367,13 +5346,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N78" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O78" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P78" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5381,31 +5360,31 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I79" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K79">
         <v>17</v>
@@ -5417,42 +5396,42 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O79" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G80" t="s">
+        <v>242</v>
+      </c>
+      <c r="H80" t="s">
+        <v>244</v>
+      </c>
+      <c r="I80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J80" t="s">
         <v>249</v>
-      </c>
-      <c r="H80" t="s">
-        <v>251</v>
-      </c>
-      <c r="I80" t="s">
-        <v>248</v>
-      </c>
-      <c r="J80" t="s">
-        <v>256</v>
       </c>
       <c r="K80">
         <v>284</v>
@@ -5464,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O80" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P80" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5478,31 +5457,31 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I81" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J81" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K81">
         <v>8</v>
@@ -5514,45 +5493,45 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O81" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P81" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H82" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I82" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J82" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K82">
         <v>24</v>
@@ -5564,45 +5543,45 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O82" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P82" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I83" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J83" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K83">
         <v>24</v>
@@ -5614,45 +5593,45 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O83" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P83" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I84" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J84" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K84">
         <v>8</v>
@@ -5664,42 +5643,42 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O84" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H85" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I85" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J85" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K85">
         <v>19</v>
@@ -5711,45 +5690,45 @@
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O85" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P85" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I86" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J86" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K86">
         <v>69</v>
@@ -5761,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O86" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P86" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5775,31 +5754,31 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G87" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" t="s">
         <v>247</v>
       </c>
-      <c r="H87" t="s">
-        <v>254</v>
-      </c>
       <c r="I87" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J87" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -5811,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O87" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P87" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5825,31 +5804,31 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G88" t="s">
+        <v>240</v>
+      </c>
+      <c r="H88" t="s">
         <v>247</v>
       </c>
-      <c r="H88" t="s">
-        <v>254</v>
-      </c>
       <c r="I88" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J88" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -5861,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O88" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P88" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5875,31 +5854,31 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I89" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J89" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K89">
         <v>8</v>
@@ -5911,13 +5890,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N89" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O89" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5925,28 +5904,28 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D90" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G90" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H90" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I90" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J90" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K90">
         <v>11</v>
@@ -5958,42 +5937,42 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O90" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G91" t="s">
+        <v>242</v>
+      </c>
+      <c r="H91" t="s">
+        <v>247</v>
+      </c>
+      <c r="I91" t="s">
+        <v>240</v>
+      </c>
+      <c r="J91" t="s">
         <v>249</v>
-      </c>
-      <c r="H91" t="s">
-        <v>254</v>
-      </c>
-      <c r="I91" t="s">
-        <v>247</v>
-      </c>
-      <c r="J91" t="s">
-        <v>256</v>
       </c>
       <c r="K91">
         <v>13</v>
@@ -6005,13 +5984,13 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O91" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P91" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6019,31 +5998,31 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G92" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I92" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J92" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K92">
         <v>77</v>
@@ -6055,13 +6034,13 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O92" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6069,28 +6048,28 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G93" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J93" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K93">
         <v>8</v>
@@ -6102,42 +6081,42 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O93" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E94" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F94" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I94" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J94" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -6149,13 +6128,13 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O94" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P94" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6163,31 +6142,31 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F95" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G95" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I95" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J95" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K95">
         <v>22</v>
@@ -6199,45 +6178,45 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O95" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P95" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" t="s">
         <v>153</v>
       </c>
-      <c r="D96" t="s">
-        <v>160</v>
-      </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G96" t="s">
+        <v>240</v>
+      </c>
+      <c r="H96" t="s">
+        <v>246</v>
+      </c>
+      <c r="I96" t="s">
         <v>247</v>
       </c>
-      <c r="H96" t="s">
-        <v>253</v>
-      </c>
-      <c r="I96" t="s">
-        <v>254</v>
-      </c>
       <c r="J96" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K96">
         <v>13</v>
@@ -6249,45 +6228,45 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P96" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
         <v>154</v>
       </c>
-      <c r="D97" t="s">
-        <v>161</v>
-      </c>
       <c r="E97" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F97" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H97" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I97" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J97" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K97">
         <v>7</v>
@@ -6299,45 +6278,45 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O97" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P97" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G98" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I98" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J98" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6349,13 +6328,13 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O98" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P98" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6363,31 +6342,31 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F99" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G99" t="s">
+        <v>242</v>
+      </c>
+      <c r="H99" t="s">
+        <v>247</v>
+      </c>
+      <c r="I99" t="s">
+        <v>241</v>
+      </c>
+      <c r="J99" t="s">
         <v>249</v>
-      </c>
-      <c r="H99" t="s">
-        <v>254</v>
-      </c>
-      <c r="I99" t="s">
-        <v>248</v>
-      </c>
-      <c r="J99" t="s">
-        <v>256</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -6399,45 +6378,45 @@
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O99" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P99" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F100" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H100" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I100" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J100" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K100">
         <v>8</v>
@@ -6449,45 +6428,45 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O100" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P100" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F101" t="s">
+        <v>235</v>
+      </c>
+      <c r="G101" t="s">
         <v>242</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
+        <v>246</v>
+      </c>
+      <c r="I101" t="s">
+        <v>247</v>
+      </c>
+      <c r="J101" t="s">
         <v>249</v>
-      </c>
-      <c r="H101" t="s">
-        <v>253</v>
-      </c>
-      <c r="I101" t="s">
-        <v>254</v>
-      </c>
-      <c r="J101" t="s">
-        <v>256</v>
       </c>
       <c r="K101">
         <v>11</v>
@@ -6499,45 +6478,45 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O101" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P101" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F102" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G102" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H102" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I102" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J102" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K102">
         <v>8</v>
@@ -6549,45 +6528,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N102" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O102" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P102" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F103" t="s">
+        <v>237</v>
+      </c>
+      <c r="G103" t="s">
+        <v>245</v>
+      </c>
+      <c r="H103" t="s">
+        <v>246</v>
+      </c>
+      <c r="I103" t="s">
         <v>244</v>
       </c>
-      <c r="G103" t="s">
-        <v>252</v>
-      </c>
-      <c r="H103" t="s">
-        <v>253</v>
-      </c>
-      <c r="I103" t="s">
-        <v>251</v>
-      </c>
       <c r="J103" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K103">
         <v>21</v>
@@ -6599,13 +6578,13 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N103" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O103" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P103" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6613,31 +6592,31 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F104" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G104" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H104" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I104" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J104" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K104">
         <v>13</v>
@@ -6649,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O104" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P104" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="376">
   <si>
     <t>Birth Country</t>
   </si>
@@ -910,25 +910,13 @@
     <t>01:00:00</t>
   </si>
   <si>
-    <t>22:00:00</t>
-  </si>
-  <si>
-    <t>23:30:00</t>
+    <t>11:30:00</t>
   </si>
   <si>
     <t>00:30:00</t>
   </si>
   <si>
-    <t>23:00:00</t>
-  </si>
-  <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>01:10:00</t>
-  </si>
-  <si>
-    <t>21:00:00</t>
   </si>
   <si>
     <t>02:30:00</t>
@@ -1668,10 +1656,10 @@
         <v>279</v>
       </c>
       <c r="O3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1721,7 +1709,7 @@
         <v>296</v>
       </c>
       <c r="P4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1771,7 +1759,7 @@
         <v>297</v>
       </c>
       <c r="P5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1865,7 +1853,7 @@
         <v>296</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1912,10 +1900,10 @@
         <v>279</v>
       </c>
       <c r="O8" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1962,10 +1950,10 @@
         <v>280</v>
       </c>
       <c r="O9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2012,10 +2000,10 @@
         <v>280</v>
       </c>
       <c r="O10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2065,7 +2053,7 @@
         <v>296</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2112,7 +2100,7 @@
         <v>279</v>
       </c>
       <c r="O12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2162,7 +2150,7 @@
         <v>297</v>
       </c>
       <c r="P13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2212,7 +2200,7 @@
         <v>296</v>
       </c>
       <c r="P14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2262,7 +2250,7 @@
         <v>297</v>
       </c>
       <c r="P15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2309,10 +2297,10 @@
         <v>283</v>
       </c>
       <c r="O16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2362,7 +2350,7 @@
         <v>297</v>
       </c>
       <c r="P17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2456,7 +2444,7 @@
         <v>297</v>
       </c>
       <c r="P19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2506,7 +2494,7 @@
         <v>297</v>
       </c>
       <c r="P20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2553,10 +2541,10 @@
         <v>285</v>
       </c>
       <c r="O21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2603,7 +2591,7 @@
         <v>297</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2647,7 +2635,7 @@
         <v>280</v>
       </c>
       <c r="O23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2691,7 +2679,7 @@
         <v>280</v>
       </c>
       <c r="O24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2738,10 +2726,10 @@
         <v>286</v>
       </c>
       <c r="O25" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2788,10 +2776,10 @@
         <v>287</v>
       </c>
       <c r="O26" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2838,10 +2826,10 @@
         <v>288</v>
       </c>
       <c r="O27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2888,7 +2876,7 @@
         <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2935,10 +2923,10 @@
         <v>280</v>
       </c>
       <c r="O29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2985,10 +2973,10 @@
         <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3038,7 +3026,7 @@
         <v>297</v>
       </c>
       <c r="P31" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3085,10 +3073,10 @@
         <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3135,10 +3123,10 @@
         <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3232,10 +3220,10 @@
         <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P35" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3285,7 +3273,7 @@
         <v>297</v>
       </c>
       <c r="P36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3335,7 +3323,7 @@
         <v>297</v>
       </c>
       <c r="P37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3382,10 +3370,10 @@
         <v>289</v>
       </c>
       <c r="O38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P38" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3476,10 +3464,10 @@
         <v>279</v>
       </c>
       <c r="O40" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3526,10 +3514,10 @@
         <v>279</v>
       </c>
       <c r="O41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P41" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3579,7 +3567,7 @@
         <v>296</v>
       </c>
       <c r="P42" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3626,7 +3614,7 @@
         <v>296</v>
       </c>
       <c r="P43" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3676,7 +3664,7 @@
         <v>296</v>
       </c>
       <c r="P44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3726,7 +3714,7 @@
         <v>296</v>
       </c>
       <c r="P45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3776,7 +3764,7 @@
         <v>297</v>
       </c>
       <c r="P46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3826,7 +3814,7 @@
         <v>297</v>
       </c>
       <c r="P47" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3873,10 +3861,10 @@
         <v>280</v>
       </c>
       <c r="O48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P48" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3926,7 +3914,7 @@
         <v>297</v>
       </c>
       <c r="P49" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3973,7 +3961,7 @@
         <v>296</v>
       </c>
       <c r="P50" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4023,7 +4011,7 @@
         <v>296</v>
       </c>
       <c r="P51" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4073,7 +4061,7 @@
         <v>297</v>
       </c>
       <c r="P52" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4120,7 +4108,7 @@
         <v>297</v>
       </c>
       <c r="P53" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4170,7 +4158,7 @@
         <v>296</v>
       </c>
       <c r="P54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4217,10 +4205,10 @@
         <v>288</v>
       </c>
       <c r="O55" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P55" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4267,10 +4255,10 @@
         <v>288</v>
       </c>
       <c r="O56" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P56" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4320,7 +4308,7 @@
         <v>293</v>
       </c>
       <c r="P57" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4367,10 +4355,10 @@
         <v>291</v>
       </c>
       <c r="O58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P58" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4417,7 +4405,7 @@
         <v>278</v>
       </c>
       <c r="O59" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4464,10 +4452,10 @@
         <v>279</v>
       </c>
       <c r="O60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P60" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4514,7 +4502,7 @@
         <v>296</v>
       </c>
       <c r="P61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4608,10 +4596,10 @@
         <v>286</v>
       </c>
       <c r="O63" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4658,10 +4646,10 @@
         <v>278</v>
       </c>
       <c r="O64" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P64" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4711,7 +4699,7 @@
         <v>297</v>
       </c>
       <c r="P65" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4758,10 +4746,10 @@
         <v>288</v>
       </c>
       <c r="O66" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4808,10 +4796,10 @@
         <v>288</v>
       </c>
       <c r="O67" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P67" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4861,7 +4849,7 @@
         <v>297</v>
       </c>
       <c r="P68" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4908,10 +4896,10 @@
         <v>278</v>
       </c>
       <c r="O69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P69" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4958,10 +4946,10 @@
         <v>286</v>
       </c>
       <c r="O70" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P70" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5011,7 +4999,7 @@
         <v>296</v>
       </c>
       <c r="P71" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5061,7 +5049,7 @@
         <v>297</v>
       </c>
       <c r="P72" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5202,7 +5190,7 @@
         <v>297</v>
       </c>
       <c r="P75" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5252,7 +5240,7 @@
         <v>297</v>
       </c>
       <c r="P76" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5302,7 +5290,7 @@
         <v>296</v>
       </c>
       <c r="P77" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5352,7 +5340,7 @@
         <v>296</v>
       </c>
       <c r="P78" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5399,10 +5387,10 @@
         <v>287</v>
       </c>
       <c r="O79" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5449,7 +5437,7 @@
         <v>297</v>
       </c>
       <c r="P80" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5496,10 +5484,10 @@
         <v>279</v>
       </c>
       <c r="O81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5546,10 +5534,10 @@
         <v>278</v>
       </c>
       <c r="O82" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P82" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5596,10 +5584,10 @@
         <v>278</v>
       </c>
       <c r="O83" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P83" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5693,10 +5681,10 @@
         <v>287</v>
       </c>
       <c r="O85" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P85" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5746,7 +5734,7 @@
         <v>296</v>
       </c>
       <c r="P86" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5796,7 +5784,7 @@
         <v>297</v>
       </c>
       <c r="P87" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5846,7 +5834,7 @@
         <v>297</v>
       </c>
       <c r="P88" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5896,7 +5884,7 @@
         <v>296</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5940,7 +5928,7 @@
         <v>293</v>
       </c>
       <c r="O90" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5990,7 +5978,7 @@
         <v>296</v>
       </c>
       <c r="P91" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6037,10 +6025,10 @@
         <v>280</v>
       </c>
       <c r="O92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6131,10 +6119,10 @@
         <v>284</v>
       </c>
       <c r="O94" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="P94" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6181,10 +6169,10 @@
         <v>283</v>
       </c>
       <c r="O95" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P95" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6231,10 +6219,10 @@
         <v>278</v>
       </c>
       <c r="O96" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P96" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6281,10 +6269,10 @@
         <v>294</v>
       </c>
       <c r="O97" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P97" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6334,7 +6322,7 @@
         <v>297</v>
       </c>
       <c r="P98" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6384,7 +6372,7 @@
         <v>297</v>
       </c>
       <c r="P99" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6434,7 +6422,7 @@
         <v>296</v>
       </c>
       <c r="P100" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6481,10 +6469,10 @@
         <v>278</v>
       </c>
       <c r="O101" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P101" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6534,7 +6522,7 @@
         <v>297</v>
       </c>
       <c r="P102" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6581,10 +6569,10 @@
         <v>293</v>
       </c>
       <c r="O103" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P103" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6631,10 +6619,10 @@
         <v>295</v>
       </c>
       <c r="O104" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P104" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="382">
   <si>
     <t>Birth Country</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Favorite Visualization</t>
   </si>
   <si>
+    <t>Sleep Duration</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
@@ -1142,6 +1145,21 @@
   </si>
   <si>
     <t>A mosaic</t>
+  </si>
+  <si>
+    <t>07:10:00</t>
+  </si>
+  <si>
+    <t>07:45:00</t>
+  </si>
+  <si>
+    <t>05:40:00</t>
+  </si>
+  <si>
+    <t>07:15:00</t>
+  </si>
+  <si>
+    <t>06:45:00</t>
   </si>
 </sst>
 </file>
@@ -1512,13 +1530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,34 +1585,37 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>97</v>
@@ -1606,42 +1627,45 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>297</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" t="s">
         <v>243</v>
       </c>
-      <c r="I3" t="s">
-        <v>242</v>
-      </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1653,45 +1677,48 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>306</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" t="s">
-        <v>240</v>
-      </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1703,45 +1730,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>307</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" t="s">
         <v>242</v>
       </c>
-      <c r="H5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I5" t="s">
-        <v>241</v>
-      </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1753,42 +1783,45 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q5" t="s">
         <v>280</v>
       </c>
-      <c r="O5" t="s">
-        <v>297</v>
-      </c>
-      <c r="P5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1800,42 +1833,45 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>297</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" t="s">
         <v>244</v>
       </c>
-      <c r="H7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" t="s">
-        <v>243</v>
-      </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1847,45 +1883,48 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>309</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1897,45 +1936,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N8" t="s">
+        <v>280</v>
+      </c>
+      <c r="O8" t="s">
         <v>279</v>
       </c>
-      <c r="O8" t="s">
-        <v>278</v>
-      </c>
       <c r="P8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>310</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" t="s">
         <v>242</v>
       </c>
-      <c r="H9" t="s">
-        <v>241</v>
-      </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K9">
         <v>13</v>
@@ -1947,45 +1989,48 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>311</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K10">
         <v>72</v>
@@ -1997,45 +2042,48 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>312</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" t="s">
         <v>242</v>
       </c>
-      <c r="H11" t="s">
-        <v>241</v>
-      </c>
       <c r="I11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2047,45 +2095,48 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>313</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K12">
         <v>20</v>
@@ -2097,42 +2148,45 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>294</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K13">
         <v>28</v>
@@ -2144,45 +2198,48 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>314</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" t="s">
         <v>245</v>
       </c>
-      <c r="H14" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" t="s">
-        <v>244</v>
-      </c>
       <c r="J14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K14">
         <v>26</v>
@@ -2194,45 +2251,48 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>315</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" t="s">
         <v>246</v>
       </c>
-      <c r="H15" t="s">
-        <v>245</v>
-      </c>
       <c r="I15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -2244,45 +2304,48 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>316</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" t="s">
         <v>246</v>
       </c>
-      <c r="H16" t="s">
-        <v>245</v>
-      </c>
       <c r="I16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K16">
         <v>138</v>
@@ -2294,45 +2357,48 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>317</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2344,42 +2410,45 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
+        <v>281</v>
+      </c>
+      <c r="O17" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" t="s">
         <v>280</v>
       </c>
-      <c r="O17" t="s">
-        <v>297</v>
-      </c>
-      <c r="P17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" t="s">
         <v>245</v>
       </c>
-      <c r="H18" t="s">
-        <v>240</v>
-      </c>
-      <c r="I18" t="s">
-        <v>244</v>
-      </c>
       <c r="J18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K18">
         <v>111</v>
@@ -2391,42 +2460,45 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>297</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" t="s">
         <v>242</v>
       </c>
-      <c r="H19" t="s">
-        <v>244</v>
-      </c>
-      <c r="I19" t="s">
-        <v>241</v>
-      </c>
       <c r="J19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2438,45 +2510,48 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
+        <v>281</v>
+      </c>
+      <c r="O19" t="s">
+        <v>298</v>
+      </c>
+      <c r="P19" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q19" t="s">
         <v>280</v>
       </c>
-      <c r="O19" t="s">
-        <v>297</v>
-      </c>
-      <c r="P19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K20">
         <v>57</v>
@@ -2488,45 +2563,48 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" t="s">
+        <v>298</v>
+      </c>
+      <c r="P20" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q20" t="s">
         <v>280</v>
       </c>
-      <c r="O20" t="s">
-        <v>297</v>
-      </c>
-      <c r="P20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2538,42 +2616,45 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>320</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H22" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" t="s">
         <v>241</v>
       </c>
-      <c r="I22" t="s">
-        <v>240</v>
-      </c>
       <c r="J22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2585,42 +2666,45 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>321</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K23">
         <v>25</v>
@@ -2632,39 +2716,42 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>299</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -2676,42 +2763,45 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>299</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" t="s">
         <v>244</v>
       </c>
-      <c r="I25" t="s">
-        <v>243</v>
-      </c>
       <c r="J25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2723,45 +2813,48 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>322</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" t="s">
         <v>244</v>
       </c>
-      <c r="I26" t="s">
-        <v>243</v>
-      </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2773,45 +2866,48 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P26" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>311</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" t="s">
         <v>246</v>
       </c>
-      <c r="H27" t="s">
-        <v>245</v>
-      </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K27">
         <v>24</v>
@@ -2823,45 +2919,48 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>323</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" t="s">
         <v>246</v>
       </c>
-      <c r="H28" t="s">
-        <v>241</v>
-      </c>
-      <c r="I28" t="s">
-        <v>245</v>
-      </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -2873,42 +2972,45 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>303</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -2920,45 +3022,48 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>324</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2970,45 +3075,48 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>325</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K31">
         <v>22</v>
@@ -3020,45 +3128,48 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>298</v>
+      </c>
+      <c r="P31" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q31" t="s">
         <v>288</v>
       </c>
-      <c r="O31" t="s">
-        <v>297</v>
-      </c>
-      <c r="P31" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" t="s">
+        <v>240</v>
+      </c>
+      <c r="I32" t="s">
         <v>246</v>
       </c>
-      <c r="H32" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" t="s">
-        <v>245</v>
-      </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -3070,45 +3181,48 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>327</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" t="s">
         <v>246</v>
       </c>
-      <c r="H33" t="s">
-        <v>239</v>
-      </c>
-      <c r="I33" t="s">
-        <v>245</v>
-      </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K33">
         <v>17</v>
@@ -3120,45 +3234,48 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>328</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" t="s">
         <v>245</v>
       </c>
-      <c r="H34" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" t="s">
-        <v>244</v>
-      </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K34">
         <v>111</v>
@@ -3170,42 +3287,45 @@
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>298</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" t="s">
         <v>246</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>245</v>
       </c>
-      <c r="I35" t="s">
-        <v>244</v>
-      </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3217,45 +3337,48 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>329</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3267,45 +3390,48 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>298</v>
+      </c>
+      <c r="P36" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q36" t="s">
         <v>280</v>
       </c>
-      <c r="O36" t="s">
-        <v>297</v>
-      </c>
-      <c r="P36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3317,45 +3443,48 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>298</v>
+      </c>
+      <c r="P37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q37" t="s">
         <v>280</v>
       </c>
-      <c r="O37" t="s">
-        <v>297</v>
-      </c>
-      <c r="P37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K38">
         <v>21</v>
@@ -3367,42 +3496,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>332</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" t="s">
         <v>242</v>
       </c>
-      <c r="H39" t="s">
-        <v>241</v>
-      </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K39">
         <v>11</v>
@@ -3414,42 +3546,45 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>297</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" t="s">
         <v>246</v>
       </c>
-      <c r="H40" t="s">
-        <v>245</v>
-      </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -3461,45 +3596,48 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>333</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K41">
         <v>69</v>
@@ -3511,45 +3649,48 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>334</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K42">
         <v>69</v>
@@ -3561,42 +3702,45 @@
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P42" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>335</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -3608,45 +3752,48 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P43" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>336</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3658,45 +3805,48 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>337</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K45">
         <v>72</v>
@@ -3708,45 +3858,48 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>314</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -3758,45 +3911,48 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
+        <v>288</v>
+      </c>
+      <c r="O46" t="s">
+        <v>298</v>
+      </c>
+      <c r="P46" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q46" t="s">
         <v>287</v>
       </c>
-      <c r="O46" t="s">
-        <v>297</v>
-      </c>
-      <c r="P46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K47">
         <v>21</v>
@@ -3808,45 +3964,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P47" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>339</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K48">
         <v>21</v>
@@ -3858,45 +4017,48 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>340</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K49">
         <v>12</v>
@@ -3908,45 +4070,48 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
+        <v>288</v>
+      </c>
+      <c r="O49" t="s">
+        <v>298</v>
+      </c>
+      <c r="P49" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q49" t="s">
         <v>287</v>
       </c>
-      <c r="O49" t="s">
-        <v>297</v>
-      </c>
-      <c r="P49" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3955,45 +4120,48 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P50" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>341</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H51" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" t="s">
         <v>247</v>
       </c>
-      <c r="I51" t="s">
-        <v>246</v>
-      </c>
       <c r="J51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K51">
         <v>17</v>
@@ -4005,45 +4173,48 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P51" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>342</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K52">
         <v>24</v>
@@ -4055,42 +4226,45 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
+        <v>281</v>
+      </c>
+      <c r="O52" t="s">
+        <v>298</v>
+      </c>
+      <c r="P52" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q52" t="s">
         <v>280</v>
       </c>
-      <c r="O52" t="s">
-        <v>297</v>
-      </c>
-      <c r="P52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K53">
         <v>13</v>
@@ -4102,45 +4276,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O53" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P53" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>344</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4152,45 +4329,48 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P54" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>345</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -4202,45 +4382,48 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P55" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>346</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K56">
         <v>69</v>
@@ -4252,45 +4435,48 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>309</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4302,45 +4488,48 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P57" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>347</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -4352,45 +4541,48 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O58" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P58" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>348</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H59" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" t="s">
         <v>241</v>
       </c>
-      <c r="I59" t="s">
-        <v>240</v>
-      </c>
       <c r="J59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K59">
         <v>8</v>
@@ -4402,42 +4594,45 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>303</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -4449,42 +4644,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>349</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -4496,45 +4694,48 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P61" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>350</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" t="s">
+        <v>241</v>
+      </c>
+      <c r="I62" t="s">
         <v>244</v>
       </c>
-      <c r="H62" t="s">
-        <v>240</v>
-      </c>
-      <c r="I62" t="s">
-        <v>243</v>
-      </c>
       <c r="J62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K62">
         <v>7</v>
@@ -4546,42 +4747,45 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
+        <v>289</v>
+      </c>
+      <c r="O62" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q62" t="s">
         <v>288</v>
       </c>
-      <c r="O62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K63">
         <v>21</v>
@@ -4593,45 +4797,48 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P63" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>351</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K64">
         <v>13</v>
@@ -4643,45 +4850,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O64" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P64" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>352</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H65" t="s">
+        <v>241</v>
+      </c>
+      <c r="I65" t="s">
         <v>240</v>
       </c>
-      <c r="I65" t="s">
-        <v>239</v>
-      </c>
       <c r="J65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -4693,45 +4903,48 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>353</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K66">
         <v>14</v>
@@ -4743,45 +4956,48 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>320</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K67">
         <v>14</v>
@@ -4793,45 +5009,48 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>320</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K68">
         <v>8</v>
@@ -4843,45 +5062,48 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
+        <v>281</v>
+      </c>
+      <c r="O68" t="s">
+        <v>298</v>
+      </c>
+      <c r="P68" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q68" t="s">
         <v>280</v>
       </c>
-      <c r="O68" t="s">
-        <v>297</v>
-      </c>
-      <c r="P68" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K69">
         <v>9</v>
@@ -4893,45 +5115,48 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O69" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P69" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>355</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K70">
         <v>16</v>
@@ -4943,45 +5168,48 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>316</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -4993,45 +5221,48 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>320</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K72">
         <v>759</v>
@@ -5043,42 +5274,45 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>356</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G73" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" t="s">
         <v>246</v>
       </c>
-      <c r="H73" t="s">
-        <v>245</v>
-      </c>
       <c r="I73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -5090,42 +5324,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O73" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>296</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K74">
         <v>18</v>
@@ -5137,42 +5374,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O74" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>297</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G75" t="s">
+        <v>243</v>
+      </c>
+      <c r="H75" t="s">
+        <v>245</v>
+      </c>
+      <c r="I75" t="s">
         <v>242</v>
       </c>
-      <c r="H75" t="s">
-        <v>244</v>
-      </c>
-      <c r="I75" t="s">
-        <v>241</v>
-      </c>
       <c r="J75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K75">
         <v>64</v>
@@ -5184,45 +5424,48 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
+        <v>281</v>
+      </c>
+      <c r="O75" t="s">
+        <v>298</v>
+      </c>
+      <c r="P75" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q75" t="s">
         <v>280</v>
       </c>
-      <c r="O75" t="s">
-        <v>297</v>
-      </c>
-      <c r="P75" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" t="s">
+        <v>245</v>
+      </c>
+      <c r="I76" t="s">
         <v>242</v>
       </c>
-      <c r="H76" t="s">
-        <v>244</v>
-      </c>
-      <c r="I76" t="s">
-        <v>241</v>
-      </c>
       <c r="J76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K76">
         <v>64</v>
@@ -5234,45 +5477,48 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
+        <v>281</v>
+      </c>
+      <c r="O76" t="s">
+        <v>298</v>
+      </c>
+      <c r="P76" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q76" t="s">
         <v>280</v>
       </c>
-      <c r="O76" t="s">
-        <v>297</v>
-      </c>
-      <c r="P76" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H77" t="s">
+        <v>247</v>
+      </c>
+      <c r="I77" t="s">
         <v>246</v>
       </c>
-      <c r="I77" t="s">
-        <v>245</v>
-      </c>
       <c r="J77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K77">
         <v>7</v>
@@ -5284,45 +5530,48 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P77" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>359</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G78" t="s">
+        <v>242</v>
+      </c>
+      <c r="H78" t="s">
         <v>241</v>
       </c>
-      <c r="H78" t="s">
-        <v>240</v>
-      </c>
       <c r="I78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K78">
         <v>9</v>
@@ -5334,45 +5583,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>309</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K79">
         <v>17</v>
@@ -5384,42 +5636,45 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>360</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G80" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" t="s">
+        <v>245</v>
+      </c>
+      <c r="I80" t="s">
         <v>242</v>
       </c>
-      <c r="H80" t="s">
-        <v>244</v>
-      </c>
-      <c r="I80" t="s">
-        <v>241</v>
-      </c>
       <c r="J80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K80">
         <v>284</v>
@@ -5431,45 +5686,48 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P80" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>361</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K81">
         <v>8</v>
@@ -5481,45 +5739,48 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P81" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+        <v>312</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G82" t="s">
+        <v>246</v>
+      </c>
+      <c r="H82" t="s">
+        <v>241</v>
+      </c>
+      <c r="I82" t="s">
         <v>245</v>
       </c>
-      <c r="H82" t="s">
-        <v>240</v>
-      </c>
-      <c r="I82" t="s">
-        <v>244</v>
-      </c>
       <c r="J82" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K82">
         <v>24</v>
@@ -5531,45 +5792,48 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P82" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+        <v>362</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G83" t="s">
+        <v>246</v>
+      </c>
+      <c r="H83" t="s">
+        <v>241</v>
+      </c>
+      <c r="I83" t="s">
         <v>245</v>
       </c>
-      <c r="H83" t="s">
-        <v>240</v>
-      </c>
-      <c r="I83" t="s">
-        <v>244</v>
-      </c>
       <c r="J83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K83">
         <v>24</v>
@@ -5581,45 +5845,48 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P83" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+        <v>363</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H84" t="s">
+        <v>242</v>
+      </c>
+      <c r="I84" t="s">
         <v>241</v>
       </c>
-      <c r="I84" t="s">
-        <v>240</v>
-      </c>
       <c r="J84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K84">
         <v>8</v>
@@ -5631,42 +5898,45 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O84" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>298</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G85" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" t="s">
+        <v>247</v>
+      </c>
+      <c r="I85" t="s">
         <v>242</v>
       </c>
-      <c r="H85" t="s">
-        <v>246</v>
-      </c>
-      <c r="I85" t="s">
-        <v>241</v>
-      </c>
       <c r="J85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K85">
         <v>19</v>
@@ -5678,45 +5948,48 @@
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P85" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+        <v>320</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K86">
         <v>69</v>
@@ -5728,45 +6001,48 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P86" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>364</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G87" t="s">
+        <v>241</v>
+      </c>
+      <c r="H87" t="s">
+        <v>248</v>
+      </c>
+      <c r="I87" t="s">
         <v>240</v>
       </c>
-      <c r="H87" t="s">
-        <v>247</v>
-      </c>
-      <c r="I87" t="s">
-        <v>239</v>
-      </c>
       <c r="J87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -5778,45 +6054,48 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
+        <v>281</v>
+      </c>
+      <c r="O87" t="s">
+        <v>298</v>
+      </c>
+      <c r="P87" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q87" t="s">
         <v>280</v>
       </c>
-      <c r="O87" t="s">
-        <v>297</v>
-      </c>
-      <c r="P87" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G88" t="s">
+        <v>241</v>
+      </c>
+      <c r="H88" t="s">
+        <v>248</v>
+      </c>
+      <c r="I88" t="s">
         <v>240</v>
       </c>
-      <c r="H88" t="s">
-        <v>247</v>
-      </c>
-      <c r="I88" t="s">
-        <v>239</v>
-      </c>
       <c r="J88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -5828,45 +6107,48 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
+        <v>281</v>
+      </c>
+      <c r="O88" t="s">
+        <v>298</v>
+      </c>
+      <c r="P88" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q88" t="s">
         <v>280</v>
       </c>
-      <c r="O88" t="s">
-        <v>297</v>
-      </c>
-      <c r="P88" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H89" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" t="s">
         <v>245</v>
       </c>
-      <c r="I89" t="s">
-        <v>244</v>
-      </c>
       <c r="J89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K89">
         <v>8</v>
@@ -5878,42 +6160,45 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N89" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>366</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K90">
         <v>11</v>
@@ -5925,42 +6210,45 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O90" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>303</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K91">
         <v>13</v>
@@ -5972,45 +6260,48 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P91" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+        <v>334</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K92">
         <v>77</v>
@@ -6022,42 +6313,45 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O92" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+        <v>367</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K93">
         <v>8</v>
@@ -6069,42 +6363,45 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+        <v>297</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -6116,45 +6413,48 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P94" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>337</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K95">
         <v>22</v>
@@ -6166,45 +6466,48 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P95" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+        <v>368</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K96">
         <v>13</v>
@@ -6216,45 +6519,48 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O96" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P96" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+        <v>369</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G97" t="s">
+        <v>247</v>
+      </c>
+      <c r="H97" t="s">
+        <v>243</v>
+      </c>
+      <c r="I97" t="s">
         <v>246</v>
       </c>
-      <c r="H97" t="s">
-        <v>242</v>
-      </c>
-      <c r="I97" t="s">
-        <v>245</v>
-      </c>
       <c r="J97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K97">
         <v>7</v>
@@ -6266,45 +6572,48 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P97" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+        <v>370</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6316,45 +6625,48 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
+        <v>289</v>
+      </c>
+      <c r="O98" t="s">
+        <v>298</v>
+      </c>
+      <c r="P98" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q98" t="s">
         <v>288</v>
       </c>
-      <c r="O98" t="s">
-        <v>297</v>
-      </c>
-      <c r="P98" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G99" t="s">
+        <v>243</v>
+      </c>
+      <c r="H99" t="s">
+        <v>248</v>
+      </c>
+      <c r="I99" t="s">
         <v>242</v>
       </c>
-      <c r="H99" t="s">
-        <v>247</v>
-      </c>
-      <c r="I99" t="s">
-        <v>241</v>
-      </c>
       <c r="J99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -6366,45 +6678,48 @@
         <v>2</v>
       </c>
       <c r="N99" t="s">
+        <v>289</v>
+      </c>
+      <c r="O99" t="s">
+        <v>298</v>
+      </c>
+      <c r="P99" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q99" t="s">
         <v>288</v>
       </c>
-      <c r="O99" t="s">
-        <v>297</v>
-      </c>
-      <c r="P99" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K100">
         <v>8</v>
@@ -6416,45 +6731,48 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O100" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P100" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+        <v>373</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K101">
         <v>11</v>
@@ -6466,45 +6784,48 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P101" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+        <v>337</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K102">
         <v>8</v>
@@ -6516,45 +6837,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P102" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+        <v>374</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G103" t="s">
+        <v>246</v>
+      </c>
+      <c r="H103" t="s">
+        <v>247</v>
+      </c>
+      <c r="I103" t="s">
         <v>245</v>
       </c>
-      <c r="H103" t="s">
-        <v>246</v>
-      </c>
-      <c r="I103" t="s">
-        <v>244</v>
-      </c>
       <c r="J103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K103">
         <v>21</v>
@@ -6566,45 +6890,48 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="N103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O103" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P103" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+        <v>375</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G104" t="s">
+        <v>243</v>
+      </c>
+      <c r="H104" t="s">
+        <v>240</v>
+      </c>
+      <c r="I104" t="s">
         <v>242</v>
       </c>
-      <c r="H104" t="s">
-        <v>239</v>
-      </c>
-      <c r="I104" t="s">
-        <v>241</v>
-      </c>
       <c r="J104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K104">
         <v>13</v>
@@ -6616,13 +6943,16 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O104" t="s">
+        <v>281</v>
+      </c>
+      <c r="P104" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q104" t="s">
         <v>280</v>
-      </c>
-      <c r="P104" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
